--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject26.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject26.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.80267866345620553</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -164,7 +164,7 @@
         <v>0</v>
       </c>
       <c r="M1" s="0">
-        <v>0</v>
+        <v>0.64305736457437934</v>
       </c>
       <c r="N1" s="0">
         <v>0</v>
@@ -302,10 +302,10 @@
         <v>0</v>
       </c>
       <c r="BG1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH1" s="0">
-        <v>0</v>
+        <v>0.86676405400017065</v>
       </c>
       <c r="BI1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.89524451396117311</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.73261924731661554</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>0.81831673521231885</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="AN2" s="0">
-        <v>0</v>
+        <v>0.63222253897964609</v>
       </c>
       <c r="AO2" s="0">
         <v>0</v>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="AZ2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="0">
         <v>0</v>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="BH2" s="0">
-        <v>0</v>
+        <v>0.57332832730693961</v>
       </c>
       <c r="BI2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.78448566156468269</v>
       </c>
     </row>
     <row r="3">
@@ -543,16 +543,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.99716132322386486</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.60044345648190856</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="AD3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.62862077514339398</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.72012800328195814</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.89812434577910549</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.51573605421899349</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="0">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="BL4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM4" s="0">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.87897915889162093</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.50895056204572087</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.99181165402860683</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="0">
-        <v>0</v>
+        <v>0.54369989002153063</v>
       </c>
       <c r="AK5" s="0">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="BD5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>0.70298238169696703</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.51658434072174908</v>
       </c>
       <c r="H6" s="0">
-        <v>0</v>
+        <v>0.86213574154747896</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AH6" s="0">
-        <v>0</v>
+        <v>0.63449251980192845</v>
       </c>
       <c r="AI6" s="0">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="0">
-        <v>0</v>
+        <v>0.78704722184215115</v>
       </c>
       <c r="AT6" s="0">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="AW6" s="0">
-        <v>0</v>
+        <v>0.60339500149336911</v>
       </c>
       <c r="AX6" s="0">
         <v>0</v>
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="BD6" s="0">
-        <v>0</v>
+        <v>0.83039007255685626</v>
       </c>
       <c r="BE6" s="0">
         <v>0</v>
       </c>
       <c r="BF6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.5471176325619872</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.67400823238869223</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0</v>
+        <v>0.98254588738927828</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.5526396919369283</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="0">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="0">
-        <v>0</v>
+        <v>0.98677447461799095</v>
       </c>
       <c r="AV7" s="0">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AZ7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>0.96744970575757039</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>0.96073508069490321</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.59525462948377805</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="0">
-        <v>0</v>
+        <v>0.94926817356885695</v>
       </c>
       <c r="AB8" s="0">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="AV8" s="0">
-        <v>0</v>
+        <v>0.6708868982912628</v>
       </c>
       <c r="AW8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.5994133865381841</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.74222861495243964</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.68589787438046224</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="0">
-        <v>0</v>
+        <v>0.71559405493855999</v>
       </c>
       <c r="Q9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.71559282962129012</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.90020443262553229</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="0">
-        <v>1</v>
+        <v>0.70639352740115524</v>
       </c>
       <c r="T10" s="0">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="0">
-        <v>0</v>
+        <v>0.89378874088249272</v>
       </c>
       <c r="AK10" s="0">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="0">
-        <v>0</v>
+        <v>0.82178566794644747</v>
       </c>
       <c r="AR10" s="0">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" s="0">
-        <v>0</v>
+        <v>0.6000919292738609</v>
       </c>
       <c r="BA10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.61052323832987021</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0</v>
+        <v>0.61310733948352658</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.90121002702044795</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="BA11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>0.50574602923713396</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.90061730832820142</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="0">
-        <v>0</v>
+        <v>0.70866731467233324</v>
       </c>
       <c r="AB12" s="0">
         <v>0</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="BE12" s="0">
-        <v>0</v>
+        <v>0.69318063241309869</v>
       </c>
       <c r="BF12" s="0">
         <v>0</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0</v>
+        <v>0.60116068466376416</v>
       </c>
       <c r="B13" s="0">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.65354003850689169</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.57189848408191768</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.65293334672927072</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="0">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.89983998581049907</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.71698725906121497</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="0">
-        <v>0</v>
+        <v>0.69509697441083385</v>
       </c>
       <c r="T14" s="0">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="0">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="AW14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX14" s="0">
         <v>0</v>
@@ -3051,16 +3051,16 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="BC15" s="0">
-        <v>0</v>
+        <v>0.71016011452044325</v>
       </c>
       <c r="BD15" s="0">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="BI15" s="0">
-        <v>0</v>
+        <v>0.54521763089760389</v>
       </c>
       <c r="BJ15" s="0">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="0">
-        <v>0</v>
+        <v>0.66435945820627729</v>
       </c>
       <c r="J16" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.72079304398852173</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0</v>
+        <v>0.89410976290748589</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="0">
-        <v>0</v>
+        <v>0.90094397760983203</v>
       </c>
       <c r="AL16" s="0">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="0">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="AO17" s="0">
-        <v>0</v>
+        <v>0.93572029774622323</v>
       </c>
       <c r="AP17" s="0">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="BJ17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK17" s="0">
         <v>0</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="BO17" s="0">
-        <v>0</v>
+        <v>0.88485321420400698</v>
       </c>
       <c r="BP17" s="0">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="0">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="0">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0</v>
+        <v>0.76752901773441817</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.61013148336524159</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="0">
-        <v>0</v>
+        <v>0.91969838862514697</v>
       </c>
       <c r="AM18" s="0">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AO18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="0">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>1</v>
+        <v>0.88468448064980687</v>
       </c>
       <c r="K19" s="0">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="0">
-        <v>0</v>
+        <v>0.60111301668103123</v>
       </c>
       <c r="O19" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.52177474493678033</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="0">
-        <v>0</v>
+        <v>0.94983393886767797</v>
       </c>
       <c r="AF19" s="0">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.52943801003692847</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.86748956362763674</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="0">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>0</v>
       </c>
       <c r="BJ20" s="0">
-        <v>0</v>
+        <v>0.86171440723965342</v>
       </c>
       <c r="BK20" s="0">
-        <v>0</v>
+        <v>0.83875536922228755</v>
       </c>
       <c r="BL20" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.94137135071010136</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.52865305658244255</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="0">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.77114287877162857</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.66576040914501866</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.94950092679113229</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="0">
-        <v>0</v>
+        <v>0.99809481666813293</v>
       </c>
       <c r="AE22" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.54850595409677327</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.52559475335817329</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.60835769548648555</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="BE23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF23" s="0">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="BO23" s="0">
-        <v>0</v>
+        <v>0.61932363378607358</v>
       </c>
       <c r="BP23" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.6480600400165808</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.90170621332613132</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.7823685626598319</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.63632379789377502</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.95229474307312534</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.84397213620171285</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.82538797846795053</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.61650227387227718</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.92437537664845282</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.94834683954358789</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="BG26" s="0">
-        <v>0</v>
+        <v>0.6937868098081591</v>
       </c>
       <c r="BH26" s="0">
         <v>0</v>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="0">
-        <v>0</v>
+        <v>0.59045237653363669</v>
       </c>
       <c r="I27" s="0">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="0">
-        <v>0</v>
+        <v>0.88199191872085403</v>
       </c>
       <c r="M27" s="0">
         <v>0</v>
@@ -5556,25 +5556,25 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.69653228638839981</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
       </c>
       <c r="AE27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="0">
         <v>0</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="BC27" s="0">
-        <v>0</v>
+        <v>0.9337960335012685</v>
       </c>
       <c r="BD27" s="0">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="BN27" s="0">
-        <v>0</v>
+        <v>0.88196736336956505</v>
       </c>
       <c r="BO27" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.50032643630925855</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0.886784793129749</v>
       </c>
       <c r="AD28" s="0">
-        <v>0</v>
+        <v>0.54551834903558749</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="AO28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="0">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="AZ28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0.85310312364940311</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.68574376874448784</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.92112598203689644</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="0">
-        <v>0</v>
+        <v>0.93013887360982617</v>
       </c>
       <c r="AM29" s="0">
         <v>0</v>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="0">
-        <v>0</v>
+        <v>0.67378916682311174</v>
       </c>
       <c r="W30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0</v>
+        <v>0.95523570648527523</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.77092026634486766</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.80862032262875738</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="0">
-        <v>0</v>
+        <v>0.93799077789628083</v>
       </c>
       <c r="T31" s="0">
         <v>0</v>
@@ -6386,22 +6386,22 @@
         <v>0</v>
       </c>
       <c r="AA31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="0">
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.66798559626334097</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.80381650424121709</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="0">
-        <v>0</v>
+        <v>0.66454040064100894</v>
       </c>
       <c r="AL31" s="0">
         <v>0</v>
@@ -6503,13 +6503,13 @@
         <v>0</v>
       </c>
       <c r="BN31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO31" s="0">
         <v>0</v>
       </c>
       <c r="BP31" s="0">
-        <v>0</v>
+        <v>0.70243108661681797</v>
       </c>
     </row>
     <row r="32">
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.66742900263798655</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.73611281704206766</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="AU32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV32" s="0">
         <v>0</v>
@@ -6813,22 +6813,22 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.98544165265566364</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0</v>
+        <v>0.7504976833050101</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.8968675541969684</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
       </c>
       <c r="AK33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="0">
         <v>0</v>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="AY33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ33" s="0">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="0">
-        <v>0</v>
+        <v>0.51762506160430077</v>
       </c>
       <c r="G34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.85090087859213093</v>
       </c>
       <c r="AG34" s="0">
-        <v>0</v>
+        <v>0.65272420876506443</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.68150174147147358</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.95052478515474226</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.77882600182979922</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.70038306430141306</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" s="0">
-        <v>0</v>
+        <v>0.54653732222919493</v>
       </c>
       <c r="BA35" s="0">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="0">
-        <v>0</v>
+        <v>0.65267588491708928</v>
       </c>
       <c r="F36" s="0">
         <v>0</v>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="0">
-        <v>0</v>
+        <v>0.72794556517107512</v>
       </c>
       <c r="K36" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.56168590346528302</v>
       </c>
       <c r="AL36" s="0">
-        <v>0</v>
+        <v>0.8955018258843489</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="AU36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV36" s="0">
         <v>0</v>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="0">
-        <v>0</v>
+        <v>0.60951851860165696</v>
       </c>
       <c r="Q37" s="0">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" s="0">
         <v>0</v>
@@ -7634,31 +7634,31 @@
         <v>0</v>
       </c>
       <c r="AE37" s="0">
-        <v>0</v>
+        <v>0.89083507908378734</v>
       </c>
       <c r="AF37" s="0">
         <v>0</v>
       </c>
       <c r="AG37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="0">
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.65912491557743524</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.58919166040030635</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.81794622996476862</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="BE37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF37" s="0">
         <v>0</v>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="0">
-        <v>0</v>
+        <v>0.96020093571051368</v>
       </c>
       <c r="S38" s="0">
         <v>0</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="0">
-        <v>0</v>
+        <v>0.84676170480639978</v>
       </c>
       <c r="AD38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0</v>
+        <v>0.77547646907172296</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.97721603042906757</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.95540356079205158</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.65248239504272054</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.69525258546211</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0.64538677273300715</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="BO39" s="0">
-        <v>0</v>
+        <v>0.74754742679900288</v>
       </c>
       <c r="BP39" s="0">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="0">
-        <v>0</v>
+        <v>0.68344608205302371</v>
       </c>
       <c r="C40" s="0">
         <v>0</v>
@@ -8273,16 +8273,16 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.79075795476098298</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
         <v>0</v>
@@ -8333,10 +8333,10 @@
         <v>0</v>
       </c>
       <c r="BF40" s="0">
-        <v>0</v>
+        <v>0.59225592656758996</v>
       </c>
       <c r="BG40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH40" s="0">
         <v>0</v>
@@ -8416,10 +8416,10 @@
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>0</v>
+        <v>0.69285097606705282</v>
       </c>
       <c r="R41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="0">
         <v>0</v>
@@ -8449,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0.58233954066714044</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.84865995351547863</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0</v>
+        <v>0.68509816732260198</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8694,16 +8694,16 @@
         <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.81543437981199784</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.79980632748423197</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.77153375248431832</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="AX42" s="0">
-        <v>0</v>
+        <v>0.68511107314536457</v>
       </c>
       <c r="AY42" s="0">
         <v>0</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="BC42" s="0">
-        <v>0</v>
+        <v>0.84872377682993738</v>
       </c>
       <c r="BD42" s="0">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="0">
-        <v>0</v>
+        <v>0.63042255700958172</v>
       </c>
       <c r="K43" s="0">
         <v>0</v>
@@ -8900,25 +8900,25 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0</v>
+        <v>0.76040033433001875</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.86208156531400992</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0</v>
+        <v>0.69877086061140337</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.83491185696599712</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
       </c>
       <c r="AU43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV43" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.94848075856213243</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0</v>
+        <v>0.75086421678115101</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9160,10 +9160,10 @@
         <v>0</v>
       </c>
       <c r="BG44" s="0">
-        <v>0</v>
+        <v>0.57195670452949621</v>
       </c>
       <c r="BH44" s="0">
-        <v>0</v>
+        <v>0.5547410413104944</v>
       </c>
       <c r="BI44" s="0">
         <v>0</v>
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="0">
-        <v>0</v>
+        <v>0.54307167000680934</v>
       </c>
       <c r="G45" s="0">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.70063658561705888</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.74558718804818669</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.99585242454474543</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.95186905608229022</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="BD46" s="0">
-        <v>0</v>
+        <v>0.85276675467194063</v>
       </c>
       <c r="BE46" s="0">
         <v>0</v>
@@ -9622,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="0">
-        <v>0</v>
+        <v>0.57756767768314321</v>
       </c>
       <c r="H47" s="0">
         <v>0</v>
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="AF47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="0">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK47" s="0">
         <v>0</v>
@@ -9730,16 +9730,16 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR47" s="0">
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.80238241544238831</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9831,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="0">
-        <v>0</v>
+        <v>0.91138186866757054</v>
       </c>
       <c r="I48" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.89825556160398057</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.68332134247138288</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="0">
-        <v>0</v>
+        <v>0.57760408980156419</v>
       </c>
       <c r="G49" s="0">
         <v>0</v>
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" s="0">
         <v>0</v>
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.60061167154329154</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.53910865775354544</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.50397868405875557</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10345,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="0">
-        <v>0</v>
+        <v>0.64039376447420904</v>
       </c>
       <c r="AQ50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10372,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.8785882682133006</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="AG51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.88760112497844301</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.94607243890466242</v>
       </c>
       <c r="BA51" s="0">
-        <v>0</v>
+        <v>0.74500466722776904</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="0">
         <v>0</v>
@@ -10652,7 +10652,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="0">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="0">
-        <v>0</v>
+        <v>0.89770312389180418</v>
       </c>
       <c r="K52" s="0">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="0">
         <v>0</v>
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="AI52" s="0">
-        <v>0</v>
+        <v>0.51440230992397784</v>
       </c>
       <c r="AJ52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.83026174235951022</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.71552735037812987</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.8478812019194657</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10802,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="BE52" s="0">
-        <v>0</v>
+        <v>0.91375464965352315</v>
       </c>
       <c r="BF52" s="0">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0</v>
+        <v>0.83107035271078433</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.50766636941590104</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.86221584419481478</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.77343348172196436</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.9506935022377061</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.68681812930838881</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.58486337275558986</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="0">
-        <v>0</v>
+        <v>0.58109354885374653</v>
       </c>
       <c r="P55" s="0">
         <v>0</v>
@@ -11330,7 +11330,7 @@
         <v>0</v>
       </c>
       <c r="AA55" s="0">
-        <v>0</v>
+        <v>0.63732133488061293</v>
       </c>
       <c r="AB55" s="0">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="AP55" s="0">
-        <v>0</v>
+        <v>0.51462198687516758</v>
       </c>
       <c r="AQ55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.51562845008588432</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.9722561431900133</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11470,10 +11470,10 @@
         <v>0</v>
       </c>
       <c r="E56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="0">
-        <v>0</v>
+        <v>0.70693032994445715</v>
       </c>
       <c r="G56" s="0">
         <v>0</v>
@@ -11593,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="AT56" s="0">
-        <v>0</v>
+        <v>0.86408744357310141</v>
       </c>
       <c r="AU56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.94006060615819942</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.89783288277464623</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11653,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="BN56" s="0">
-        <v>0</v>
+        <v>0.85927841057521803</v>
       </c>
       <c r="BO56" s="0">
         <v>0</v>
@@ -11697,7 +11697,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="0">
-        <v>0</v>
+        <v>0.95649154605226006</v>
       </c>
       <c r="M57" s="0">
         <v>0</v>
@@ -11730,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="W57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X57" s="0">
         <v>0</v>
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="0">
         <v>0</v>
@@ -11817,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="AZ57" s="0">
-        <v>0</v>
+        <v>0.80622275055790382</v>
       </c>
       <c r="BA57" s="0">
         <v>0</v>
@@ -11826,16 +11826,16 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0</v>
+        <v>0.57806070876041371</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -11850,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="BK57" s="0">
-        <v>0</v>
+        <v>0.73892411009504977</v>
       </c>
       <c r="BL57" s="0">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="0">
         <v>0</v>
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="AN58" s="0">
-        <v>0</v>
+        <v>0.87767807772337858</v>
       </c>
       <c r="AO58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.90290120842776234</v>
       </c>
       <c r="BE58" s="0">
-        <v>0</v>
+        <v>0.50534050653134632</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.68456627867087882</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.93042246103404924</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12076,7 +12076,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" s="0">
         <v>0</v>
@@ -12151,7 +12151,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="0">
-        <v>0</v>
+        <v>0.58185538485860289</v>
       </c>
       <c r="AA59" s="0">
         <v>0</v>
@@ -12193,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="AN59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO59" s="0">
         <v>0</v>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="AR59" s="0">
-        <v>0</v>
+        <v>0.51155763556688671</v>
       </c>
       <c r="AS59" s="0">
         <v>0</v>
@@ -12247,16 +12247,16 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.96647693386440103</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.52134817775235875</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.87142972419918063</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12282,10 +12282,10 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0</v>
+        <v>0.5723279598927753</v>
       </c>
       <c r="B60" s="0">
-        <v>0</v>
+        <v>0.70364056235672012</v>
       </c>
       <c r="C60" s="0">
         <v>0</v>
@@ -12411,7 +12411,7 @@
         <v>0</v>
       </c>
       <c r="AR60" s="0">
-        <v>0</v>
+        <v>0.61903726433600348</v>
       </c>
       <c r="AS60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.59031947210350832</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.68805839938869251</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.79357126750368701</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.84127025808705369</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="0">
-        <v>0</v>
+        <v>0.96549222255817391</v>
       </c>
       <c r="P61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.9340000022475704</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.70747500936296082</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.56832812994192561</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.8631542489138635</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12742,7 +12742,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="0">
         <v>0</v>
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
       <c r="T62" s="0">
-        <v>0</v>
+        <v>0.74982376737047052</v>
       </c>
       <c r="U62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.97047910111461577</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.72572534226836849</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.78565300823805484</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.5085732091723103</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12957,7 +12957,7 @@
         <v>0</v>
       </c>
       <c r="T63" s="0">
-        <v>0</v>
+        <v>0.62097436726808941</v>
       </c>
       <c r="U63" s="0">
         <v>0</v>
@@ -13068,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="BE63" s="0">
-        <v>0</v>
+        <v>0.97497747192231521</v>
       </c>
       <c r="BF63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.96050072941946185</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.58823672514767322</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.88530629483226653</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13115,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.67562809776443755</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.90580729722643127</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.81673745634366424</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13498,22 +13498,22 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.6751665552802939</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.61994696211866662</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.92310715131313059</v>
       </c>
       <c r="BP65" s="0">
-        <v>0</v>
+        <v>0.86077351763022691</v>
       </c>
     </row>
     <row r="66">
@@ -13596,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="0">
-        <v>0</v>
+        <v>0.58953429600130469</v>
       </c>
       <c r="AB66" s="0">
         <v>0</v>
@@ -13608,7 +13608,7 @@
         <v>0</v>
       </c>
       <c r="AE66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF66" s="0">
         <v>0</v>
@@ -13683,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="BD66" s="0">
-        <v>0</v>
+        <v>0.84255335058601166</v>
       </c>
       <c r="BE66" s="0">
         <v>0</v>
@@ -13707,16 +13707,16 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.88205210060849371</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.87617303428597393</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.8892471055856348</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13772,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="0">
-        <v>0</v>
+        <v>0.61439683055308481</v>
       </c>
       <c r="R67" s="0">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="W67" s="0">
-        <v>0</v>
+        <v>0.95634630204890558</v>
       </c>
       <c r="X67" s="0">
         <v>0</v>
@@ -13838,7 +13838,7 @@
         <v>0</v>
       </c>
       <c r="AM67" s="0">
-        <v>0</v>
+        <v>0.7329580756282088</v>
       </c>
       <c r="AN67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.812181566604528</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.58187758422865121</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.77322822551953008</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14020,7 +14020,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="0">
-        <v>0</v>
+        <v>0.64762948114451324</v>
       </c>
       <c r="AF68" s="0">
         <v>0</v>
@@ -14122,13 +14122,13 @@
         <v>0</v>
       </c>
       <c r="BM68" s="0">
-        <v>0</v>
+        <v>0.80353578148103666</v>
       </c>
       <c r="BN68" s="0">
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject26.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject26.xlsx
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.73261924731661554</v>
+        <v>0.80267866345620553</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="AN2" s="0">
-        <v>0.63222253897964609</v>
+        <v>0.68344608205302371</v>
       </c>
       <c r="AO2" s="0">
         <v>0</v>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="BH2" s="0">
-        <v>0.57332832730693961</v>
+        <v>0.70364056235672012</v>
       </c>
       <c r="BI2" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0.99716132322386486</v>
       </c>
       <c r="E3" s="0">
-        <v>0.60044345648190856</v>
+        <v>0.87897915889162093</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.62862077514339398</v>
+        <v>0.81831673521231885</v>
       </c>
       <c r="C4" s="0">
-        <v>0.72012800328195814</v>
+        <v>0.99716132322386486</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0.89812434577910549</v>
       </c>
       <c r="F4" s="0">
-        <v>0.51573605421899349</v>
+        <v>0.70298238169696703</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0.87897915889162093</v>
       </c>
       <c r="D5" s="0">
-        <v>0.50895056204572087</v>
+        <v>0.89812434577910549</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="0">
-        <v>0.54369989002153063</v>
+        <v>0.65267588491708928</v>
       </c>
       <c r="AK5" s="0">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.51658434072174908</v>
+        <v>0.67400823238869223</v>
       </c>
       <c r="H6" s="0">
-        <v>0.86213574154747896</v>
+        <v>0.96744970575757039</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.5471176325619872</v>
+        <v>0.99181165402860683</v>
       </c>
       <c r="F7" s="0">
         <v>0.67400823238869223</v>
@@ -1388,7 +1388,7 @@
         <v>0.98254588738927828</v>
       </c>
       <c r="I7" s="0">
-        <v>0.5526396919369283</v>
+        <v>0.5994133865381841</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0.96744970575757039</v>
       </c>
       <c r="G8" s="0">
-        <v>0.96073508069490321</v>
+        <v>0.98254588738927828</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0.59525462948377805</v>
+        <v>0.71559282962129012</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="AV8" s="0">
-        <v>0.6708868982912628</v>
+        <v>0.91138186866757054</v>
       </c>
       <c r="AW8" s="0">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.74222861495243964</v>
+        <v>0.90020443262553229</v>
       </c>
       <c r="K9" s="0">
         <v>0.68589787438046224</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="0">
-        <v>0.70639352740115524</v>
+        <v>0.88468448064980687</v>
       </c>
       <c r="T10" s="0">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" s="0">
-        <v>0.6000919292738609</v>
+        <v>0.89770312389180418</v>
       </c>
       <c r="BA10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.61052323832987021</v>
+        <v>0.68589787438046224</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0.50574602923713396</v>
+        <v>0.61310733948352658</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="0">
-        <v>0.70866731467233324</v>
+        <v>0.88199191872085403</v>
       </c>
       <c r="AB12" s="0">
         <v>0</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="BE12" s="0">
-        <v>0.69318063241309869</v>
+        <v>0.95649154605226006</v>
       </c>
       <c r="BF12" s="0">
         <v>0</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.60116068466376416</v>
+        <v>0.64305736457437934</v>
       </c>
       <c r="B13" s="0">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.65354003850689169</v>
+        <v>0.90121002702044795</v>
       </c>
       <c r="L13" s="0">
-        <v>0.57189848408191768</v>
+        <v>0.90061730832820142</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.65293334672927072</v>
+        <v>0.89983998581049907</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>0.71698725906121497</v>
+        <v>0.72079304398852173</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="BI15" s="0">
-        <v>0.54521763089760389</v>
+        <v>0.96549222255817391</v>
       </c>
       <c r="BJ15" s="0">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="0">
-        <v>0.66435945820627729</v>
+        <v>0.71559405493855999</v>
       </c>
       <c r="J16" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.76752901773441817</v>
+        <v>0.89410976290748589</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="0">
-        <v>0.91969838862514697</v>
+        <v>0.96020093571051368</v>
       </c>
       <c r="AM18" s="0">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="0">
-        <v>0.60111301668103123</v>
+        <v>0.69509697441083385</v>
       </c>
       <c r="O19" s="0">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.52177474493678033</v>
+        <v>0.86748956362763674</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0.52943801003692847</v>
+        <v>0.61013148336524159</v>
       </c>
       <c r="S20" s="0">
         <v>0.86748956362763674</v>
@@ -4314,7 +4314,7 @@
         <v>0.94137135071010136</v>
       </c>
       <c r="W21" s="0">
-        <v>0.52865305658244255</v>
+        <v>0.54850595409677327</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0.77114287877162857</v>
+        <v>0.94137135071010136</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0.54850595409677327</v>
       </c>
       <c r="V23" s="0">
-        <v>0.52559475335817329</v>
+        <v>0.66576040914501866</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.60835769548648555</v>
+        <v>0.63632379789377502</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="BO23" s="0">
-        <v>0.61932363378607358</v>
+        <v>0.95634630204890558</v>
       </c>
       <c r="BP23" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.6480600400165808</v>
+        <v>0.94950092679113229</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.90170621332613132</v>
+        <v>0.95229474307312534</v>
       </c>
       <c r="Z24" s="0">
         <v>0.7823685626598319</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.84397213620171285</v>
+        <v>0.92437537664845282</v>
       </c>
       <c r="AA25" s="0">
         <v>0.82538797846795053</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.61650227387227718</v>
+        <v>0.7823685626598319</v>
       </c>
       <c r="Y26" s="0">
         <v>0.92437537664845282</v>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="0">
-        <v>0.59045237653363669</v>
+        <v>0.94926817356885695</v>
       </c>
       <c r="I27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.69653228638839981</v>
+        <v>0.82538797846795053</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.50032643630925855</v>
+        <v>0.94834683954358789</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0.886784793129749</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.54551834903558749</v>
+        <v>0.95523570648527523</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5977,13 +5977,13 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.85310312364940311</v>
+        <v>0.886784793129749</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.68574376874448784</v>
+        <v>0.77092026634486766</v>
       </c>
       <c r="AE29" s="0">
         <v>0.92112598203689644</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="0">
-        <v>0.67378916682311174</v>
+        <v>0.99809481666813293</v>
       </c>
       <c r="W30" s="0">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="0">
-        <v>0.93799077789628083</v>
+        <v>0.94983393886767797</v>
       </c>
       <c r="T31" s="0">
         <v>0</v>
@@ -6392,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.66798559626334097</v>
+        <v>0.92112598203689644</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.80381650424121709</v>
+        <v>0.80862032262875738</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="0">
-        <v>0.66454040064100894</v>
+        <v>0.89083507908378734</v>
       </c>
       <c r="AL31" s="0">
         <v>0</v>
@@ -6610,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.66742900263798655</v>
+        <v>0.98544165265566364</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.73611281704206766</v>
+        <v>0.85090087859213093</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0.7504976833050101</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.8968675541969684</v>
+        <v>0.95052478515474226</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="0">
-        <v>0.51762506160430077</v>
+        <v>0.63449251980192845</v>
       </c>
       <c r="G34" s="0">
         <v>0</v>
@@ -7022,13 +7022,13 @@
         <v>0.85090087859213093</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.65272420876506443</v>
+        <v>0.7504976833050101</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.68150174147147358</v>
+        <v>0.77882600182979922</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="0">
-        <v>0.72794556517107512</v>
+        <v>0.89378874088249272</v>
       </c>
       <c r="K36" s="0">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.56168590346528302</v>
+        <v>0.58919166040030635</v>
       </c>
       <c r="AL36" s="0">
         <v>0.8955018258843489</v>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="0">
-        <v>0.60951851860165696</v>
+        <v>0.90094397760983203</v>
       </c>
       <c r="Q37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.65912491557743524</v>
+        <v>0.70038306430141306</v>
       </c>
       <c r="AJ37" s="0">
         <v>0.58919166040030635</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.81794622996476862</v>
+        <v>0.97721603042906757</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="0">
-        <v>0.84676170480639978</v>
+        <v>0.93013887360982617</v>
       </c>
       <c r="AD38" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.77547646907172296</v>
+        <v>0.8955018258843489</v>
       </c>
       <c r="AK38" s="0">
         <v>0.97721603042906757</v>
@@ -8067,13 +8067,13 @@
         <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.65248239504272054</v>
+        <v>0.95540356079205158</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.69525258546211</v>
+        <v>0.79075795476098298</v>
       </c>
       <c r="AO39" s="0">
         <v>0.64538677273300715</v>
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="BF40" s="0">
-        <v>0.59225592656758996</v>
+        <v>0.87767807772337858</v>
       </c>
       <c r="BG40" s="0">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>0.69285097606705282</v>
+        <v>0.93572029774622323</v>
       </c>
       <c r="R41" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.58233954066714044</v>
+        <v>0.64538677273300715</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0.84865995351547863</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.68509816732260198</v>
+        <v>0.76040033433001875</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8694,16 +8694,16 @@
         <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.81543437981199784</v>
+        <v>0.84865995351547863</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.79980632748423197</v>
+        <v>0.86208156531400992</v>
       </c>
       <c r="AR42" s="0">
-        <v>0.77153375248431832</v>
+        <v>0.94848075856213243</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="0">
-        <v>0.63042255700958172</v>
+        <v>0.82178566794644747</v>
       </c>
       <c r="K43" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.69877086061140337</v>
+        <v>0.75086421678115101</v>
       </c>
       <c r="AS43" s="0">
         <v>0.83491185696599712</v>
@@ -9163,7 +9163,7 @@
         <v>0.57195670452949621</v>
       </c>
       <c r="BH44" s="0">
-        <v>0.5547410413104944</v>
+        <v>0.61903726433600348</v>
       </c>
       <c r="BI44" s="0">
         <v>0</v>
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="0">
-        <v>0.54307167000680934</v>
+        <v>0.78704722184215115</v>
       </c>
       <c r="G45" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.70063658561705888</v>
+        <v>0.83491185696599712</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.74558718804818669</v>
+        <v>0.99585242454474543</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="BD46" s="0">
-        <v>0.85276675467194063</v>
+        <v>0.86408744357310141</v>
       </c>
       <c r="BE46" s="0">
         <v>0</v>
@@ -9622,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="0">
-        <v>0.57756767768314321</v>
+        <v>0.98677447461799095</v>
       </c>
       <c r="H47" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.89825556160398057</v>
+        <v>0.95186905608229022</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="0">
-        <v>0.57760408980156419</v>
+        <v>0.60339500149336911</v>
       </c>
       <c r="G49" s="0">
         <v>0</v>
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.60061167154329154</v>
+        <v>0.80238241544238831</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.53910865775354544</v>
+        <v>0.68332134247138288</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.50397868405875557</v>
+        <v>0.88760112497844301</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10345,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="0">
-        <v>0.64039376447420904</v>
+        <v>0.68511107314536457</v>
       </c>
       <c r="AQ50" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0.94607243890466242</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.74500466722776904</v>
+        <v>0.83107035271078433</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="AI52" s="0">
-        <v>0.51440230992397784</v>
+        <v>0.54653732222919493</v>
       </c>
       <c r="AJ52" s="0">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.83026174235951022</v>
+        <v>0.8785882682133006</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.71552735037812987</v>
+        <v>0.94607243890466242</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0.50766636941590104</v>
+        <v>0.9506935022377061</v>
       </c>
       <c r="BC53" s="0">
         <v>0.86221584419481478</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.77343348172196436</v>
+        <v>0.8478812019194657</v>
       </c>
       <c r="BA54" s="0">
         <v>0.9506935022377061</v>
@@ -11208,10 +11208,10 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.68681812930838881</v>
+        <v>0.9722561431900133</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.58486337275558986</v>
+        <v>0.94006060615819942</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="0">
-        <v>0.58109354885374653</v>
+        <v>0.71016011452044325</v>
       </c>
       <c r="P55" s="0">
         <v>0</v>
@@ -11330,7 +11330,7 @@
         <v>0</v>
       </c>
       <c r="AA55" s="0">
-        <v>0.63732133488061293</v>
+        <v>0.9337960335012685</v>
       </c>
       <c r="AB55" s="0">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="AP55" s="0">
-        <v>0.51462198687516758</v>
+        <v>0.84872377682993738</v>
       </c>
       <c r="AQ55" s="0">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.51562845008588432</v>
+        <v>0.86221584419481478</v>
       </c>
       <c r="BB55" s="0">
         <v>0.9722561431900133</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="0">
-        <v>0.70693032994445715</v>
+        <v>0.83039007255685626</v>
       </c>
       <c r="G56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.89783288277464623</v>
+        <v>0.90290120842776234</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11817,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="AZ57" s="0">
-        <v>0.80622275055790382</v>
+        <v>0.91375464965352315</v>
       </c>
       <c r="BA57" s="0">
         <v>0</v>
@@ -11850,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="BK57" s="0">
-        <v>0.73892411009504977</v>
+        <v>0.97497747192231521</v>
       </c>
       <c r="BL57" s="0">
         <v>0</v>
@@ -12038,13 +12038,13 @@
         <v>0.90290120842776234</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.50534050653134632</v>
+        <v>0.57806070876041371</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.68456627867087882</v>
+        <v>0.96647693386440103</v>
       </c>
       <c r="BH58" s="0">
         <v>0.93042246103404924</v>
@@ -12151,7 +12151,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="0">
-        <v>0.58185538485860289</v>
+        <v>0.6937868098081591</v>
       </c>
       <c r="AA59" s="0">
         <v>0</v>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="AR59" s="0">
-        <v>0.51155763556688671</v>
+        <v>0.57195670452949621</v>
       </c>
       <c r="AS59" s="0">
         <v>0</v>
@@ -12253,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.52134817775235875</v>
+        <v>0.68805839938869251</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.87142972419918063</v>
+        <v>0.9340000022475704</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12282,7 +12282,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.5723279598927753</v>
+        <v>0.86676405400017065</v>
       </c>
       <c r="B60" s="0">
         <v>0.70364056235672012</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.59031947210350832</v>
+        <v>0.93042246103404924</v>
       </c>
       <c r="BG60" s="0">
         <v>0.68805839938869251</v>
@@ -12465,7 +12465,7 @@
         <v>0.79357126750368701</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.84127025808705369</v>
+        <v>0.97047910111461577</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12665,16 +12665,16 @@
         <v>0.9340000022475704</v>
       </c>
       <c r="BH61" s="0">
-        <v>0.70747500936296082</v>
+        <v>0.79357126750368701</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.56832812994192561</v>
+        <v>0.72572534226836849</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.8631542489138635</v>
+        <v>0.96050072941946185</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
       <c r="T62" s="0">
-        <v>0.74982376737047052</v>
+        <v>0.86171440723965342</v>
       </c>
       <c r="U62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0.78565300823805484</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.5085732091723103</v>
+        <v>0.67562809776443755</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12957,7 +12957,7 @@
         <v>0</v>
       </c>
       <c r="T63" s="0">
-        <v>0.62097436726808941</v>
+        <v>0.83875536922228755</v>
       </c>
       <c r="U63" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0.96050072941946185</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.58823672514767322</v>
+        <v>0.78565300823805484</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0.90580729722643127</v>
       </c>
       <c r="BN64" s="0">
-        <v>0.81673745634366424</v>
+        <v>0.88205210060849371</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13498,10 +13498,10 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0.6751665552802939</v>
+        <v>0.88530629483226653</v>
       </c>
       <c r="BL65" s="0">
-        <v>0.61994696211866662</v>
+        <v>0.90580729722643127</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13596,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="0">
-        <v>0.58953429600130469</v>
+        <v>0.88196736336956505</v>
       </c>
       <c r="AB66" s="0">
         <v>0</v>
@@ -13683,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="BD66" s="0">
-        <v>0.84255335058601166</v>
+        <v>0.85927841057521803</v>
       </c>
       <c r="BE66" s="0">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.8892471055856348</v>
+        <v>0.89524451396117311</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13772,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="0">
-        <v>0.61439683055308481</v>
+        <v>0.88485321420400698</v>
       </c>
       <c r="R67" s="0">
         <v>0</v>
@@ -13838,7 +13838,7 @@
         <v>0</v>
       </c>
       <c r="AM67" s="0">
-        <v>0.7329580756282088</v>
+        <v>0.74754742679900288</v>
       </c>
       <c r="AN67" s="0">
         <v>0</v>
@@ -13916,10 +13916,10 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.812181566604528</v>
+        <v>0.92310715131313059</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.58187758422865121</v>
+        <v>0.87617303428597393</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>0.77322822551953008</v>
+        <v>0.78448566156468269</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14020,7 +14020,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="0">
-        <v>0.64762948114451324</v>
+        <v>0.70243108661681797</v>
       </c>
       <c r="AF68" s="0">
         <v>0</v>
@@ -14122,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="BM68" s="0">
-        <v>0.80353578148103666</v>
+        <v>0.86077351763022691</v>
       </c>
       <c r="BN68" s="0">
         <v>0</v>
